--- a/CodeSamples/MonteFin/AAPL-Computed.xlsx
+++ b/CodeSamples/MonteFin/AAPL-Computed.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3120" windowWidth="21040" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="5480" windowWidth="21040" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AAPL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -75,10 +75,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,14 +122,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,20 +432,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,694 +464,696 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43102</v>
       </c>
       <c r="B2">
         <v>170.16000399999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>172.300003</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>169.259995</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>172.259995</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>172.259995</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>25555900</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43103</v>
       </c>
       <c r="B3">
         <v>172.529999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>174.550003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>171.96000699999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>172.229996</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>172.229996</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>29517900</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="4">
         <f>(F3-F2)/F2</f>
         <v>-1.7414954644578772E-4</v>
       </c>
-      <c r="K3">
-        <f>POWER((I3-$C$27),2)</f>
+      <c r="I3" s="4">
+        <f>POWER((H3-$C$27),2)</f>
         <v>1.0794596364280762E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43104</v>
       </c>
       <c r="B4">
         <v>172.53999299999899</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>173.470001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>172.08000200000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>173.029999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>173.029999</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>22434600</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I23" si="0">(F4-F3)/F3</f>
+      <c r="H4" s="4">
+        <f>(F4-F3)/F3</f>
         <v>4.6449690447650229E-3</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K23" si="1">POWER((I4-$C$27),2)</f>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I23" si="0">POWER((H4-$C$27),2)</f>
         <v>3.4317207442853317E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43105</v>
       </c>
       <c r="B5">
         <v>173.44000199999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>175.36999499999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>173.050003</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>175</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>175</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>23660000</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
+      <c r="H5" s="4">
+        <f>(F5-F4)/F4</f>
         <v>1.1385314751114322E-2</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
         <v>1.5872055857908107E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43108</v>
       </c>
       <c r="B6">
         <v>174.35000600000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>175.61000100000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>173.929993</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>174.35000600000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>174.35000600000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>20567800</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="H6" s="4">
+        <f>(F6-F5)/F5</f>
         <v>-3.7142514285713854E-3</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
         <v>6.2556583433789315E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43109</v>
       </c>
       <c r="B7">
         <v>174.550003</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>175.05999800000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>173.41000399999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>174.33000200000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>174.33000200000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>21584000</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
+      <c r="H7" s="4">
+        <f>(F7-F6)/F6</f>
         <v>-1.1473472504497724E-4</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
         <v>1.2064502471985681E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43110</v>
       </c>
       <c r="B8">
         <v>173.16000399999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>174.300003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>173</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>174.28999299999899</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>174.28999299999899</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>23959900</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="H8" s="4">
+        <f>(F8-F7)/F7</f>
         <v>-2.2950151747844826E-4</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
         <v>9.6750535046563051E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43111</v>
       </c>
       <c r="B9">
         <v>174.58999599999899</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>175.490005</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>174.490005</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>175.279999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>175.279999</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>18667700</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="H9" s="4">
+        <f>(F9-F8)/F8</f>
         <v>5.6802228456169761E-3</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
         <v>4.7518175806627226E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43112</v>
       </c>
       <c r="B10">
         <v>176.179993</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>177.36000100000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>175.64999399999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>177.08999599999899</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>177.08999599999899</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>25418100</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+      <c r="H10" s="4">
+        <f>(F10-F9)/F9</f>
         <v>1.0326317950281291E-2</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
         <v>1.3315862857568131E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43116</v>
       </c>
       <c r="B11">
         <v>177.89999399999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>179.38999899999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>176.13999899999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>176.19000199999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>176.19000199999999</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>29565900</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+      <c r="H11" s="4">
+        <f>(F11-F10)/F10</f>
         <v>-5.0821278464482141E-3</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
         <v>1.4969221592731049E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43117</v>
       </c>
       <c r="B12">
         <v>176.14999399999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>179.25</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>175.070007</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>179.10000600000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>179.10000600000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>34386800</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="H12" s="4">
+        <f>(F12-F11)/F11</f>
         <v>1.6516283370040571E-2</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
         <v>3.1433174442191576E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43118</v>
       </c>
       <c r="B13">
         <v>179.36999499999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>180.10000600000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>178.25</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>179.259995</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>179.259995</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>31193400</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="H13" s="4">
+        <f>(F13-F12)/F12</f>
         <v>8.9329421909676503E-4</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
         <v>4.4369809294581726E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43119</v>
       </c>
       <c r="B14">
         <v>178.61000100000001</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>179.58000200000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>177.41000399999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>178.46000699999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>178.46000699999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>32425100</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="H14" s="4">
+        <f>(F14-F13)/F13</f>
         <v>-4.4627246586725232E-3</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
         <v>1.0559930334234375E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43122</v>
       </c>
       <c r="B15">
         <v>177.300003</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>177.779999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>176.60000600000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>177</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>177</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>27108600</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
+      <c r="H15" s="4">
+        <f>(F15-F14)/F14</f>
         <v>-8.1811439131008797E-3</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
         <v>4.8553357031760189E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43123</v>
       </c>
       <c r="B16">
         <v>177.300003</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>179.44000199999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>176.820007</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>177.03999299999899</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>177.03999299999899</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>32689100</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
+      <c r="H16" s="4">
+        <f>(F16-F15)/F15</f>
         <v>2.2594915253664708E-4</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
         <v>2.0709200715867304E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43124</v>
       </c>
       <c r="B17">
         <v>177.25</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>177.300003</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>173.199997</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>174.220001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>174.220001</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>51105100</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
+      <c r="H17" s="4">
+        <f>(F17-F16)/F16</f>
         <v>-1.5928559147644149E-2</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
         <v>2.1654414883963966E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43125</v>
       </c>
       <c r="B18">
         <v>174.509995</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>174.949997</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>170.529999</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>171.11000100000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>171.11000100000001</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>41529000</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
+      <c r="H18" s="4">
+        <f>(F18-F17)/F17</f>
         <v>-1.7850992894897211E-2</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
         <v>2.7681881393718785E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43126</v>
       </c>
       <c r="B19">
         <v>172</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>172</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>170.05999800000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>171.509995</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>171.509995</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>39143000</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
+      <c r="H19" s="4">
+        <f>(F19-F18)/F18</f>
         <v>2.3376424385620357E-3</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
         <v>1.2607914008120368E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43129</v>
       </c>
       <c r="B20">
         <v>170.16000399999999</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>170.16000399999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>167.070007</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>167.96000699999999</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>167.96000699999999</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>50640400</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
+      <c r="H20" s="4">
+        <f>(F20-F19)/F19</f>
         <v>-2.0698432181751349E-2</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
         <v>3.7967739020010885E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43130</v>
       </c>
       <c r="B21">
         <v>165.529999</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>167.36999499999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>164.699997</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>166.970001</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>166.970001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>46048200</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
+      <c r="H21" s="4">
+        <f>(F21-F20)/F20</f>
         <v>-5.8942960153603348E-3</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
         <v>2.1913408737787528E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43131</v>
       </c>
       <c r="B22">
         <v>166.86999499999999</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>168.44000199999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>166.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>167.429993</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>167.429993</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>32478900</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
+      <c r="H22" s="4">
+        <f>(F22-F21)/F21</f>
         <v>2.7549379963170734E-3</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
         <v>1.5745484388435337E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43132</v>
       </c>
       <c r="B23">
         <v>167.16999799999999</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>168.61999499999999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>166.759995</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>167.779999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>167.779999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>38428800</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
+      <c r="H23" s="4">
+        <f>(F23-F22)/F22</f>
         <v>2.0904617728796514E-3</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
         <v>1.0913652635252492E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1108,32 +1161,41 @@
         <f>SUM(F2:F23)/COUNT(F2:F23)</f>
         <v>173.72227209090897</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f>(F5-F4)/F4</f>
+        <v>1.1385314751114322E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="C27">
-        <f>SUM(I3:I23)/COUNT(I3:I23)</f>
+        <f>SUM(H3:H23)/COUNT(H3:H23)</f>
         <v>-1.2131200159145191E-3</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="C28">
-        <f>SQRT(SUM(K3:K23)/(COUNT(K3:K23)-1))</f>
+        <f>SQRT(SUM(I3:I23)/(COUNT(I3:I23)-1))</f>
         <v>9.253017375726506E-3</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
+      <c r="H28">
+        <f>(174.3500006-175)/174.3500006</f>
+        <v>-3.7281296114891607E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>